--- a/data/output/FV2304_FV2210/UTILMD/11106.xlsx
+++ b/data/output/FV2304_FV2210/UTILMD/11106.xlsx
@@ -14,69 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4650" uniqueCount="361">
-  <si>
-    <t>Segmentname_old</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_old</t>
-  </si>
-  <si>
-    <t>Segment_old</t>
-  </si>
-  <si>
-    <t>Datenelement_old</t>
-  </si>
-  <si>
-    <t>Segment ID_old</t>
-  </si>
-  <si>
-    <t>Code_old</t>
-  </si>
-  <si>
-    <t>Qualifier_old</t>
-  </si>
-  <si>
-    <t>Beschreibung_old</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_old</t>
-  </si>
-  <si>
-    <t>Bedingung_old</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4671" uniqueCount="361">
+  <si>
+    <t>Segmentname_FV2210</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2210</t>
+  </si>
+  <si>
+    <t>Segment_FV2210</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2210</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2210</t>
+  </si>
+  <si>
+    <t>Code_FV2210</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2210</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2210</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2210</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2210</t>
   </si>
   <si>
     <t>diff</t>
   </si>
   <si>
-    <t>Segmentname_new</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_new</t>
-  </si>
-  <si>
-    <t>Segment_new</t>
-  </si>
-  <si>
-    <t>Datenelement_new</t>
-  </si>
-  <si>
-    <t>Segment ID_new</t>
-  </si>
-  <si>
-    <t>Code_new</t>
-  </si>
-  <si>
-    <t>Qualifier_new</t>
-  </si>
-  <si>
-    <t>Beschreibung_new</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_new</t>
-  </si>
-  <si>
-    <t>Bedingung_new</t>
+    <t>Segmentname_FV2304</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2304</t>
+  </si>
+  <si>
+    <t>Segment_FV2304</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2304</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2304</t>
+  </si>
+  <si>
+    <t>Code_FV2304</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2304</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2304</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2304</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2304</t>
   </si>
   <si>
     <t>Nachrichten-Kopfsegment</t>
@@ -1205,6 +1205,36 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:U219" totalsRowShown="0">
+  <autoFilter ref="A1:U219"/>
+  <tableColumns count="21">
+    <tableColumn id="1" name="Segmentname_FV2210"/>
+    <tableColumn id="2" name="Segmentgruppe_FV2210"/>
+    <tableColumn id="3" name="Segment_FV2210"/>
+    <tableColumn id="4" name="Datenelement_FV2210"/>
+    <tableColumn id="5" name="Segment ID_FV2210"/>
+    <tableColumn id="6" name="Code_FV2210"/>
+    <tableColumn id="7" name="Qualifier_FV2210"/>
+    <tableColumn id="8" name="Beschreibung_FV2210"/>
+    <tableColumn id="9" name="Bedingungsausdruck_FV2210"/>
+    <tableColumn id="10" name="Bedingung_FV2210"/>
+    <tableColumn id="11" name="diff"/>
+    <tableColumn id="12" name="Segmentname_FV2304"/>
+    <tableColumn id="13" name="Segmentgruppe_FV2304"/>
+    <tableColumn id="14" name="Segment_FV2304"/>
+    <tableColumn id="15" name="Datenelement_FV2304"/>
+    <tableColumn id="16" name="Segment ID_FV2304"/>
+    <tableColumn id="17" name="Code_FV2304"/>
+    <tableColumn id="18" name="Qualifier_FV2304"/>
+    <tableColumn id="19" name="Beschreibung_FV2304"/>
+    <tableColumn id="20" name="Bedingungsausdruck_FV2304"/>
+    <tableColumn id="21" name="Bedingung_FV2304"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1494,7 +1524,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U219"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -11518,5 +11551,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/data/output/FV2304_FV2210/UTILMD/11106.xlsx
+++ b/data/output/FV2304_FV2210/UTILMD/11106.xlsx
@@ -2255,7 +2255,7 @@
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="4"/>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="3" t="s">
         <v>22</v>
       </c>
       <c r="N2" s="2"/>
@@ -2793,7 +2793,7 @@
       </c>
       <c r="K13" s="2"/>
       <c r="L13" s="4"/>
-      <c r="M13" s="2" t="s">
+      <c r="M13" s="3" t="s">
         <v>23</v>
       </c>
       <c r="N13" s="2"/>
@@ -2927,7 +2927,7 @@
       </c>
       <c r="K16" s="2"/>
       <c r="L16" s="4"/>
-      <c r="M16" s="2" t="s">
+      <c r="M16" s="3" t="s">
         <v>24</v>
       </c>
       <c r="N16" s="2"/>
@@ -3115,7 +3115,7 @@
       </c>
       <c r="K20" s="2"/>
       <c r="L20" s="4"/>
-      <c r="M20" s="2" t="s">
+      <c r="M20" s="3" t="s">
         <v>25</v>
       </c>
       <c r="N20" s="2" t="s">
@@ -3411,7 +3411,7 @@
       </c>
       <c r="K26" s="2"/>
       <c r="L26" s="4"/>
-      <c r="M26" s="2" t="s">
+      <c r="M26" s="3" t="s">
         <v>26</v>
       </c>
       <c r="N26" s="2" t="s">
@@ -3597,7 +3597,7 @@
       </c>
       <c r="K30" s="2"/>
       <c r="L30" s="4"/>
-      <c r="M30" s="2" t="s">
+      <c r="M30" s="3" t="s">
         <v>27</v>
       </c>
       <c r="N30" s="2" t="s">
@@ -3959,7 +3959,7 @@
         <v>335</v>
       </c>
       <c r="L37" s="4"/>
-      <c r="M37" s="2" t="s">
+      <c r="M37" s="3" t="s">
         <v>28</v>
       </c>
       <c r="N37" s="2" t="s">
@@ -4257,7 +4257,7 @@
       </c>
       <c r="K43" s="2"/>
       <c r="L43" s="4"/>
-      <c r="M43" s="2" t="s">
+      <c r="M43" s="3" t="s">
         <v>29</v>
       </c>
       <c r="N43" s="2" t="s">
@@ -4445,7 +4445,7 @@
         <v>336</v>
       </c>
       <c r="L47" s="4"/>
-      <c r="M47" s="2" t="s">
+      <c r="M47" s="3" t="s">
         <v>30</v>
       </c>
       <c r="N47" s="2" t="s">
@@ -4649,7 +4649,7 @@
         <v>337</v>
       </c>
       <c r="L51" s="4"/>
-      <c r="M51" s="2" t="s">
+      <c r="M51" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N51" s="2" t="s">
@@ -4853,7 +4853,7 @@
         <v>338</v>
       </c>
       <c r="L55" s="4"/>
-      <c r="M55" s="2" t="s">
+      <c r="M55" s="3" t="s">
         <v>32</v>
       </c>
       <c r="N55" s="2" t="s">
@@ -5057,7 +5057,7 @@
         <v>338</v>
       </c>
       <c r="L59" s="4"/>
-      <c r="M59" s="2" t="s">
+      <c r="M59" s="3" t="s">
         <v>33</v>
       </c>
       <c r="N59" s="2" t="s">
@@ -5261,7 +5261,7 @@
         <v>339</v>
       </c>
       <c r="L63" s="4"/>
-      <c r="M63" s="2" t="s">
+      <c r="M63" s="3" t="s">
         <v>34</v>
       </c>
       <c r="N63" s="2" t="s">
@@ -5465,7 +5465,7 @@
         <v>340</v>
       </c>
       <c r="L67" s="4"/>
-      <c r="M67" s="2" t="s">
+      <c r="M67" s="3" t="s">
         <v>35</v>
       </c>
       <c r="N67" s="2" t="s">
@@ -5619,7 +5619,7 @@
         <v>338</v>
       </c>
       <c r="L70" s="4"/>
-      <c r="M70" s="2" t="s">
+      <c r="M70" s="3" t="s">
         <v>36</v>
       </c>
       <c r="N70" s="2" t="s">
@@ -5825,7 +5825,7 @@
         <v>341</v>
       </c>
       <c r="L74" s="4"/>
-      <c r="M74" s="2" t="s">
+      <c r="M74" s="3" t="s">
         <v>37</v>
       </c>
       <c r="N74" s="2" t="s">
@@ -6015,7 +6015,7 @@
       </c>
       <c r="K78" s="2"/>
       <c r="L78" s="4"/>
-      <c r="M78" s="2" t="s">
+      <c r="M78" s="3" t="s">
         <v>38</v>
       </c>
       <c r="N78" s="2" t="s">
@@ -6205,7 +6205,7 @@
         <v>343</v>
       </c>
       <c r="L82" s="4"/>
-      <c r="M82" s="2" t="s">
+      <c r="M82" s="3" t="s">
         <v>39</v>
       </c>
       <c r="N82" s="2" t="s">
@@ -6343,7 +6343,7 @@
       </c>
       <c r="K85" s="2"/>
       <c r="L85" s="4"/>
-      <c r="M85" s="2" t="s">
+      <c r="M85" s="3" t="s">
         <v>40</v>
       </c>
       <c r="N85" s="2" t="s">
@@ -6493,7 +6493,7 @@
         <v>344</v>
       </c>
       <c r="L88" s="4"/>
-      <c r="M88" s="2" t="s">
+      <c r="M88" s="3" t="s">
         <v>41</v>
       </c>
       <c r="N88" s="2" t="s">
@@ -6963,7 +6963,7 @@
         <v>348</v>
       </c>
       <c r="L97" s="4"/>
-      <c r="M97" s="2" t="s">
+      <c r="M97" s="3" t="s">
         <v>42</v>
       </c>
       <c r="N97" s="2" t="s">
@@ -7207,7 +7207,7 @@
       </c>
       <c r="K102" s="2"/>
       <c r="L102" s="4"/>
-      <c r="M102" s="2" t="s">
+      <c r="M102" s="3" t="s">
         <v>43</v>
       </c>
       <c r="N102" s="2" t="s">
@@ -7397,7 +7397,7 @@
         <v>350</v>
       </c>
       <c r="L106" s="4"/>
-      <c r="M106" s="2" t="s">
+      <c r="M106" s="3" t="s">
         <v>44</v>
       </c>
       <c r="N106" s="2" t="s">
@@ -7535,7 +7535,7 @@
       </c>
       <c r="K109" s="2"/>
       <c r="L109" s="4"/>
-      <c r="M109" s="2" t="s">
+      <c r="M109" s="3" t="s">
         <v>45</v>
       </c>
       <c r="N109" s="2" t="s">
@@ -7683,7 +7683,7 @@
       </c>
       <c r="K112" s="2"/>
       <c r="L112" s="4"/>
-      <c r="M112" s="2" t="s">
+      <c r="M112" s="3" t="s">
         <v>46</v>
       </c>
       <c r="N112" s="2" t="s">
@@ -7869,7 +7869,7 @@
         <v>340</v>
       </c>
       <c r="L116" s="4"/>
-      <c r="M116" s="2" t="s">
+      <c r="M116" s="3" t="s">
         <v>47</v>
       </c>
       <c r="N116" s="2" t="s">
@@ -8151,7 +8151,7 @@
       </c>
       <c r="K122" s="2"/>
       <c r="L122" s="4"/>
-      <c r="M122" s="2" t="s">
+      <c r="M122" s="3" t="s">
         <v>48</v>
       </c>
       <c r="N122" s="2" t="s">
@@ -8393,7 +8393,7 @@
       </c>
       <c r="K127" s="2"/>
       <c r="L127" s="4"/>
-      <c r="M127" s="2" t="s">
+      <c r="M127" s="3" t="s">
         <v>49</v>
       </c>
       <c r="N127" s="2" t="s">
@@ -8585,7 +8585,7 @@
         <v>352</v>
       </c>
       <c r="L131" s="4"/>
-      <c r="M131" s="2" t="s">
+      <c r="M131" s="3" t="s">
         <v>50</v>
       </c>
       <c r="N131" s="2" t="s">
@@ -8791,7 +8791,7 @@
         <v>353</v>
       </c>
       <c r="L135" s="4"/>
-      <c r="M135" s="2" t="s">
+      <c r="M135" s="3" t="s">
         <v>51</v>
       </c>
       <c r="N135" s="2" t="s">
@@ -8979,7 +8979,7 @@
       </c>
       <c r="K139" s="2"/>
       <c r="L139" s="4"/>
-      <c r="M139" s="2" t="s">
+      <c r="M139" s="3" t="s">
         <v>52</v>
       </c>
       <c r="N139" s="2" t="s">
@@ -9129,7 +9129,7 @@
         <v>354</v>
       </c>
       <c r="L142" s="4"/>
-      <c r="M142" s="2" t="s">
+      <c r="M142" s="3" t="s">
         <v>53</v>
       </c>
       <c r="N142" s="2" t="s">
@@ -9375,7 +9375,7 @@
         <v>356</v>
       </c>
       <c r="L147" s="4"/>
-      <c r="M147" s="2" t="s">
+      <c r="M147" s="3" t="s">
         <v>44</v>
       </c>
       <c r="N147" s="2" t="s">
@@ -9513,7 +9513,7 @@
       </c>
       <c r="K150" s="2"/>
       <c r="L150" s="4"/>
-      <c r="M150" s="2" t="s">
+      <c r="M150" s="3" t="s">
         <v>45</v>
       </c>
       <c r="N150" s="2" t="s">
@@ -9657,7 +9657,7 @@
       </c>
       <c r="K153" s="2"/>
       <c r="L153" s="4"/>
-      <c r="M153" s="2" t="s">
+      <c r="M153" s="3" t="s">
         <v>54</v>
       </c>
       <c r="N153" s="2" t="s">
@@ -9901,7 +9901,7 @@
         <v>357</v>
       </c>
       <c r="L158" s="4"/>
-      <c r="M158" s="2" t="s">
+      <c r="M158" s="3" t="s">
         <v>55</v>
       </c>
       <c r="N158" s="2" t="s">
@@ -10039,7 +10039,7 @@
       </c>
       <c r="K161" s="2"/>
       <c r="L161" s="4"/>
-      <c r="M161" s="2" t="s">
+      <c r="M161" s="3" t="s">
         <v>40</v>
       </c>
       <c r="N161" s="2" t="s">
@@ -10187,7 +10187,7 @@
       </c>
       <c r="K164" s="2"/>
       <c r="L164" s="4"/>
-      <c r="M164" s="2" t="s">
+      <c r="M164" s="3" t="s">
         <v>56</v>
       </c>
       <c r="N164" s="2" t="s">
@@ -10469,7 +10469,7 @@
         <v>358</v>
       </c>
       <c r="L170" s="4"/>
-      <c r="M170" s="2" t="s">
+      <c r="M170" s="3" t="s">
         <v>57</v>
       </c>
       <c r="N170" s="2" t="s">
@@ -10607,7 +10607,7 @@
       </c>
       <c r="K173" s="2"/>
       <c r="L173" s="4"/>
-      <c r="M173" s="2" t="s">
+      <c r="M173" s="3" t="s">
         <v>40</v>
       </c>
       <c r="N173" s="2" t="s">
@@ -10755,7 +10755,7 @@
       </c>
       <c r="K176" s="2"/>
       <c r="L176" s="4"/>
-      <c r="M176" s="2" t="s">
+      <c r="M176" s="3" t="s">
         <v>58</v>
       </c>
       <c r="N176" s="2" t="s">
@@ -10981,7 +10981,7 @@
       </c>
       <c r="K181" s="2"/>
       <c r="L181" s="4"/>
-      <c r="M181" s="2" t="s">
+      <c r="M181" s="3" t="s">
         <v>59</v>
       </c>
       <c r="N181" s="2" t="s">
@@ -11315,7 +11315,7 @@
       </c>
       <c r="K188" s="2"/>
       <c r="L188" s="4"/>
-      <c r="M188" s="2" t="s">
+      <c r="M188" s="3" t="s">
         <v>60</v>
       </c>
       <c r="N188" s="2" t="s">
@@ -11717,7 +11717,7 @@
         <v>360</v>
       </c>
       <c r="L196" s="4"/>
-      <c r="M196" s="2" t="s">
+      <c r="M196" s="3" t="s">
         <v>61</v>
       </c>
       <c r="N196" s="2" t="s">
@@ -11855,7 +11855,7 @@
       </c>
       <c r="K199" s="2"/>
       <c r="L199" s="4"/>
-      <c r="M199" s="2" t="s">
+      <c r="M199" s="3" t="s">
         <v>40</v>
       </c>
       <c r="N199" s="2" t="s">
@@ -12003,7 +12003,7 @@
       </c>
       <c r="K202" s="2"/>
       <c r="L202" s="4"/>
-      <c r="M202" s="2" t="s">
+      <c r="M202" s="3" t="s">
         <v>62</v>
       </c>
       <c r="N202" s="2" t="s">
@@ -12231,7 +12231,7 @@
         <v>361</v>
       </c>
       <c r="L207" s="4"/>
-      <c r="M207" s="2" t="s">
+      <c r="M207" s="3" t="s">
         <v>63</v>
       </c>
       <c r="N207" s="2" t="s">
@@ -12527,7 +12527,7 @@
       </c>
       <c r="K213" s="2"/>
       <c r="L213" s="4"/>
-      <c r="M213" s="2" t="s">
+      <c r="M213" s="3" t="s">
         <v>64</v>
       </c>
       <c r="N213" s="2" t="s">
@@ -12729,7 +12729,7 @@
       </c>
       <c r="K217" s="2"/>
       <c r="L217" s="4"/>
-      <c r="M217" s="2" t="s">
+      <c r="M217" s="3" t="s">
         <v>65</v>
       </c>
       <c r="N217" s="2"/>
